--- a/nr-release-ballot-2/ig/all-profiles.xlsx
+++ b/nr-release-ballot-2/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T08:47:12+00:00</t>
+    <t>2024-04-29T09:02:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-release-ballot-2/ig/all-profiles.xlsx
+++ b/nr-release-ballot-2/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T09:02:17+00:00</t>
+    <t>2024-04-29T09:05:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-release-ballot-2/ig/all-profiles.xlsx
+++ b/nr-release-ballot-2/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T09:05:31+00:00</t>
+    <t>2024-04-29T12:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-release-ballot-2/ig/all-profiles.xlsx
+++ b/nr-release-ballot-2/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T12:06:22+00:00</t>
+    <t>2024-04-29T12:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
